--- a/Processed_data/concentration_P_hyph.xlsx
+++ b/Processed_data/concentration_P_hyph.xlsx
@@ -1,155 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Processed_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_16F91ED18F79A8D366075C52F37BD2727A473241" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E610AE5-09C9-459E-BB22-A223714F355E}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Samp_mg</t>
-  </si>
-  <si>
-    <t>Blank_Corrected</t>
-  </si>
-  <si>
-    <t>Final_Dil</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>P_mg_L</t>
-  </si>
-  <si>
-    <t>P_mg_Kg_Sol</t>
-  </si>
-  <si>
-    <t>Uncorrected_P_mg_Kg</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>29.2</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>31.2</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>49.1</t>
-  </si>
-  <si>
-    <t>49.2</t>
-  </si>
-  <si>
-    <t>56.1</t>
-  </si>
-  <si>
-    <t>56.2</t>
-  </si>
-  <si>
-    <t>HFE1</t>
-  </si>
-  <si>
-    <t>HFE2</t>
-  </si>
-  <si>
-    <t>HFE3</t>
-  </si>
-  <si>
-    <t>HFE4</t>
-  </si>
-  <si>
-    <t>EUC STD 2.3</t>
-  </si>
-  <si>
-    <t>EUC STD 2.1</t>
-  </si>
-  <si>
-    <t>EUC STD 4.1</t>
-  </si>
-  <si>
-    <t>EUC STD 2.5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -283,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,54 +350,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Samp_mg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Blank_Corrected</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Final_Dil</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>P_mg_L</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>P_mg_Kg_Sol</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Uncorrected_P_mg_Kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
       </c>
       <c r="B2">
         <v>1.986</v>
       </c>
       <c r="C2">
-        <v>0.19142500000000001</v>
+        <v>0.191425</v>
       </c>
       <c r="D2">
         <v>3.25</v>
@@ -550,52 +418,60 @@
         <v>0.1651</v>
       </c>
       <c r="G2">
-        <v>0.93977530211480376</v>
+        <v>0.9397753021148038</v>
       </c>
       <c r="H2">
-        <v>0.81053625377643512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>0.8105362537764351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
       </c>
       <c r="B4">
-        <v>1.8240000000000001</v>
+        <v>1.824</v>
       </c>
       <c r="C4">
-        <v>-7.8325000000000006E-2</v>
+        <v>-0.07832500000000001</v>
       </c>
       <c r="D4">
         <v>3.25</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
       </c>
       <c r="F4">
-        <v>-0.10465000000000001</v>
+        <v>-0.10465</v>
       </c>
       <c r="G4">
-        <v>-0.41867804276315801</v>
+        <v>-0.418678042763158</v>
       </c>
       <c r="H4">
-        <v>-0.55939555921052631</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>-0.5593955592105263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
       </c>
       <c r="B5">
-        <v>1.9750000000000001</v>
+        <v>1.975</v>
       </c>
       <c r="C5">
-        <v>0.26292500000000002</v>
+        <v>0.262925</v>
       </c>
       <c r="D5">
         <v>3.25</v>
@@ -604,178 +480,202 @@
         <v>0.2366</v>
       </c>
       <c r="G5">
-        <v>1.2979841772151901</v>
+        <v>1.29798417721519</v>
       </c>
       <c r="H5">
         <v>1.168025316455696</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
       </c>
       <c r="B6">
-        <v>1.8919999999999999</v>
+        <v>1.892</v>
       </c>
       <c r="C6">
-        <v>8.8055500000000002</v>
+        <v>8.80555</v>
       </c>
       <c r="D6">
         <v>3.25</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
       </c>
       <c r="F6">
-        <v>8.7792250000000003</v>
+        <v>8.779225</v>
       </c>
       <c r="G6">
-        <v>45.377437896405922</v>
+        <v>45.37743789640592</v>
       </c>
       <c r="H6">
-        <v>45.241777880549691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
+        <v>45.24177788054969</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
       </c>
       <c r="B9">
-        <v>1.7889999999999999</v>
+        <v>1.789</v>
       </c>
       <c r="C9">
-        <v>0.49464999999999998</v>
+        <v>0.49465</v>
       </c>
       <c r="D9">
         <v>3.25</v>
       </c>
       <c r="F9">
-        <v>0.46832499999999999</v>
+        <v>0.468325</v>
       </c>
       <c r="G9">
-        <v>2.6958286752375629</v>
+        <v>2.695828675237563</v>
       </c>
       <c r="H9">
-        <v>2.5523581609837889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
+        <v>2.552358160983789</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
       </c>
       <c r="B10">
         <v>1.988</v>
       </c>
       <c r="C10">
-        <v>0.28957500000000003</v>
+        <v>0.289575</v>
       </c>
       <c r="D10">
         <v>3.25</v>
       </c>
       <c r="F10">
-        <v>0.26324999999999998</v>
+        <v>0.26325</v>
       </c>
       <c r="G10">
         <v>1.420199320925553</v>
       </c>
       <c r="H10">
-        <v>1.2910902917505029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
+        <v>1.291090291750503</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.18540000000000001</v>
+        <v>0.1854</v>
       </c>
       <c r="D11">
         <v>2.5</v>
       </c>
       <c r="F11">
-        <v>0.17100000000000001</v>
+        <v>0.171</v>
       </c>
       <c r="G11">
-        <v>2.7810000000000001</v>
+        <v>2.781</v>
       </c>
       <c r="H11">
-        <v>2.5649999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
+        <v>2.565</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
       </c>
       <c r="B12">
-        <v>0.61499999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="C12">
-        <v>-0.16159999999999999</v>
+        <v>-0.1616</v>
       </c>
       <c r="D12">
         <v>2.5</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
       </c>
       <c r="F12">
-        <v>-0.17599999999999999</v>
+        <v>-0.176</v>
       </c>
       <c r="G12">
-        <v>-1.9707317073170729</v>
+        <v>-1.970731707317073</v>
       </c>
       <c r="H12">
-        <v>-2.1463414634146338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
+        <v>-2.146341463414634</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
       </c>
       <c r="B13">
-        <v>0.78499999999999992</v>
+        <v>0.7849999999999999</v>
       </c>
       <c r="C13">
-        <v>6.5000000000000127E-4</v>
+        <v>0.0006500000000000013</v>
       </c>
       <c r="D13">
         <v>2.5</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
       </c>
       <c r="F13">
-        <v>-1.375E-2</v>
+        <v>-0.01375</v>
       </c>
       <c r="G13">
-        <v>6.2101910828025603E-3</v>
+        <v>0.00621019108280256</v>
       </c>
       <c r="H13">
-        <v>-0.13136942675159241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
+        <v>-0.1313694267515924</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>26.1</t>
+        </is>
       </c>
       <c r="B14">
         <v>1.988</v>
       </c>
       <c r="C14">
-        <v>0.21709999999999999</v>
+        <v>0.2171</v>
       </c>
       <c r="D14">
         <v>3.25</v>
@@ -784,15 +684,17 @@
         <v>0.190775</v>
       </c>
       <c r="G14">
-        <v>1.0647510060362171</v>
+        <v>1.064751006036217</v>
       </c>
       <c r="H14">
         <v>0.9356419768611669</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>26.2</t>
+        </is>
       </c>
       <c r="B15">
         <v>2.173</v>
@@ -804,52 +706,60 @@
         <v>3.25</v>
       </c>
       <c r="F15">
-        <v>0.20605000000000001</v>
+        <v>0.20605</v>
       </c>
       <c r="G15">
-        <v>1.0426397837091581</v>
+        <v>1.042639783709158</v>
       </c>
       <c r="H15">
-        <v>0.92452254947077772</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
+        <v>0.9245225494707777</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>29.1</t>
+        </is>
       </c>
       <c r="B16">
-        <v>0.61699999999999999</v>
+        <v>0.617</v>
       </c>
       <c r="C16">
-        <v>-0.30535000000000001</v>
+        <v>-0.30535</v>
       </c>
       <c r="D16">
         <v>2.5</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
       </c>
       <c r="F16">
-        <v>-0.31974999999999998</v>
+        <v>-0.31975</v>
       </c>
       <c r="G16">
-        <v>-3.7117098865478111</v>
+        <v>-3.711709886547811</v>
       </c>
       <c r="H16">
         <v>-3.886750405186385</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>29.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>31.1</t>
+        </is>
       </c>
       <c r="B18">
-        <v>2.0270000000000001</v>
+        <v>2.027</v>
       </c>
       <c r="C18">
         <v>0.4017</v>
@@ -858,7 +768,7 @@
         <v>3.25</v>
       </c>
       <c r="F18">
-        <v>0.37537500000000001</v>
+        <v>0.375375</v>
       </c>
       <c r="G18">
         <v>1.932202762703503</v>
@@ -867,97 +777,109 @@
         <v>1.805577824370991</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
       </c>
       <c r="B19">
-        <v>2.0720000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
+        <v>2.072</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>34.1</t>
+        </is>
       </c>
       <c r="B20">
         <v>1.99</v>
       </c>
       <c r="C20">
-        <v>6.3049999999999995E-2</v>
+        <v>0.06304999999999999</v>
       </c>
       <c r="D20">
         <v>3.25</v>
       </c>
       <c r="F20">
-        <v>3.6725000000000001E-2</v>
+        <v>0.036725</v>
       </c>
       <c r="G20">
-        <v>0.30891331658291449</v>
+        <v>0.3089133165829145</v>
       </c>
       <c r="H20">
-        <v>0.17993404522613071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
+        <v>0.1799340452261307</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
       </c>
       <c r="B21">
         <v>1.923</v>
       </c>
       <c r="C21">
-        <v>0.95192500000000002</v>
+        <v>0.951925</v>
       </c>
       <c r="D21">
         <v>3.25</v>
       </c>
       <c r="F21">
-        <v>0.92559999999999998</v>
+        <v>0.9256</v>
       </c>
       <c r="G21">
-        <v>4.8264528081123244</v>
+        <v>4.826452808112324</v>
       </c>
       <c r="H21">
-        <v>4.6929797191887674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
+        <v>4.692979719188767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>49.1</t>
+        </is>
       </c>
       <c r="B22">
         <v>1.833</v>
       </c>
       <c r="C22">
-        <v>0.41665000000000002</v>
+        <v>0.41665</v>
       </c>
       <c r="D22">
         <v>3.25</v>
       </c>
       <c r="F22">
-        <v>0.39032499999999998</v>
+        <v>0.390325</v>
       </c>
       <c r="G22">
-        <v>2.2162234042553188</v>
+        <v>2.216223404255319</v>
       </c>
       <c r="H22">
-        <v>2.0761968085106379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
+        <v>2.076196808510638</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>49.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
       </c>
       <c r="B24">
-        <v>1.9730000000000001</v>
+        <v>1.973</v>
       </c>
       <c r="C24">
-        <v>0.28892499999999999</v>
+        <v>0.288925</v>
       </c>
       <c r="D24">
         <v>3.25</v>
@@ -969,87 +891,97 @@
         <v>1.427784465281297</v>
       </c>
       <c r="H24">
-        <v>1.2976938672072991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
+        <v>1.297693867207299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
       </c>
       <c r="B25">
-        <v>0.56600000000000006</v>
+        <v>0.5660000000000001</v>
       </c>
       <c r="C25">
-        <v>4.0000000000000018E-3</v>
+        <v>0.004000000000000002</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>11</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>repeat</t>
+        </is>
       </c>
       <c r="F25">
-        <v>-1.04E-2</v>
+        <v>-0.0104</v>
       </c>
       <c r="G25">
-        <v>4.2402826855123678E-2</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="H25">
         <v>-0.1102473498233215</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HFE1</t>
+        </is>
       </c>
       <c r="B26">
-        <v>2.0579999999999998</v>
+        <v>2.058</v>
       </c>
       <c r="C26">
-        <v>1.0476000000000001</v>
+        <v>1.0476</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="F26">
-        <v>1.0331999999999999</v>
+        <v>1.0332</v>
       </c>
       <c r="G26">
-        <v>4.5813411078717197</v>
+        <v>4.58134110787172</v>
       </c>
       <c r="H26">
-        <v>4.5183673469387751</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
+        <v>4.518367346938775</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HFE2</t>
+        </is>
       </c>
       <c r="B27">
-        <v>2.1560000000000001</v>
+        <v>2.156</v>
       </c>
       <c r="C27">
-        <v>0.53399999999999992</v>
+        <v>0.5339999999999999</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>0.51959999999999995</v>
+        <v>0.5196</v>
       </c>
       <c r="G27">
-        <v>2.2291280148423001</v>
+        <v>2.2291280148423</v>
       </c>
       <c r="H27">
         <v>2.169016697588126</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>35</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HFE3</t>
+        </is>
       </c>
       <c r="B28">
-        <v>2.1779999999999999</v>
+        <v>2.178</v>
       </c>
       <c r="C28">
         <v>1.2867</v>
@@ -1061,125 +993,135 @@
         <v>1.2723</v>
       </c>
       <c r="G28">
-        <v>5.3169421487603321</v>
+        <v>5.316942148760332</v>
       </c>
       <c r="H28">
-        <v>5.2574380165289254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>36</v>
+        <v>5.257438016528925</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HFE4</t>
+        </is>
       </c>
       <c r="B29">
-        <v>1.1220000000000001</v>
+        <v>1.122</v>
       </c>
       <c r="C29">
-        <v>1.1244000000000001</v>
+        <v>1.1244</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="F29">
-        <v>1.1100000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="G29">
-        <v>9.0192513368983942</v>
+        <v>9.019251336898394</v>
       </c>
       <c r="H29">
-        <v>8.9037433155080201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>37</v>
+        <v>8.90374331550802</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EUC STD 2.1</t>
+        </is>
       </c>
       <c r="B30">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="C30">
-        <v>0.24329999999999999</v>
+        <v>0.6423</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="F30">
-        <v>0.22889999999999999</v>
+        <v>0.6279</v>
       </c>
       <c r="G30">
-        <v>0.95204347826086966</v>
+        <v>2.752714285714285</v>
       </c>
       <c r="H30">
-        <v>0.89569565217391289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
+        <v>2.691</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EUC STD 2.3</t>
+        </is>
       </c>
       <c r="B31">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="C31">
-        <v>0.64229999999999998</v>
+        <v>0.2433</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>0.62790000000000001</v>
+        <v>0.2289</v>
       </c>
       <c r="G31">
-        <v>2.7527142857142848</v>
+        <v>0.9520434782608697</v>
       </c>
       <c r="H31">
-        <v>2.6909999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
+        <v>0.8956956521739129</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EUC STD 2.5</t>
+        </is>
       </c>
       <c r="B32">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="C32">
-        <v>0.37764999999999999</v>
+        <v>0.149825</v>
       </c>
       <c r="D32">
         <v>3.25</v>
       </c>
       <c r="F32">
+        <v>0.1235</v>
+      </c>
+      <c r="G32">
+        <v>0.5843174999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.48165</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EUC STD 4.1</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>4.1</v>
+      </c>
+      <c r="C33">
+        <v>0.37765</v>
+      </c>
+      <c r="D33">
+        <v>3.25</v>
+      </c>
+      <c r="F33">
         <v>0.351325</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>0.8980701219512196</v>
       </c>
-      <c r="H32">
-        <v>0.83546798780487808</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33">
-        <v>2.5</v>
-      </c>
-      <c r="C33">
-        <v>0.14982500000000001</v>
-      </c>
-      <c r="D33">
-        <v>3.25</v>
-      </c>
-      <c r="F33">
-        <v>0.1235</v>
-      </c>
-      <c r="G33">
-        <v>0.58431749999999993</v>
-      </c>
       <c r="H33">
-        <v>0.48165000000000002</v>
+        <v>0.8354679878048781</v>
       </c>
     </row>
   </sheetData>
